--- a/git table.xlsx
+++ b/git table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f45cd0bb25b9b3b/Desktop/CRAFT KNOWLEDGE/test for git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10483A815A72B65BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF3F3ED-A7B3-4587-AB70-311E9D042541}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC10483A815A72B65BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237D841F-8446-4328-9F05-6C01B64FAA15}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="18001" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,6 +83,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,21 +352,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
